--- a/testdata/注册.xlsx
+++ b/testdata/注册.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
